--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -10,18 +10,19 @@
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Config" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="LoginElements" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>aaaaaaa</t>
   </si>
   <si>
     <t>Browser</t>
@@ -30,16 +31,28 @@
     <t>Url</t>
   </si>
   <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>https://www.snapdeal.com</t>
+  </si>
+  <si>
     <t>firefox</t>
   </si>
   <si>
-    <t>https://www.snapdeal.com</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>ie</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>signIN</t>
+  </si>
+  <si>
+    <t>//div[@class='myAccountTab accountHeaderClass col-xs-13 reset-padding']</t>
   </si>
 </sst>
 </file>
@@ -49,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -77,12 +90,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,7 +143,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -157,10 +164,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -172,7 +179,9 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -195,7 +204,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -222,10 +231,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -233,7 +242,7 @@
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -251,4 +260,49 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>